--- a/assets/stages/maps/MapEditor/Test2.xlsx
+++ b/assets/stages/maps/MapEditor/Test2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Python\test\Portal-2D-d64db052eb2d9cc4da0129cf8a37988d8c5e3502\assets\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Python\Portal-2D-Python\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F71494B-4E11-4991-B8F9-D8D0836783C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C43764-1292-4CC0-AF2C-201221D981B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,13 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="3.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -573,32 +576,84 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC3" s="1">
         <v>2</v>
       </c>
@@ -619,32 +674,84 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="C4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC4" s="1">
         <v>2</v>
       </c>
@@ -665,32 +772,84 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="C5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC5" s="1">
         <v>2</v>
       </c>
@@ -711,32 +870,84 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+      <c r="C6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC6" s="1">
         <v>2</v>
       </c>
@@ -757,32 +968,84 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="C7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC7" s="1">
         <v>2</v>
       </c>
@@ -803,32 +1066,84 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
+      <c r="C8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC8" s="1">
         <v>2</v>
       </c>
@@ -849,13 +1164,27 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="C9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1</v>
+      </c>
       <c r="J9" s="1">
         <v>2</v>
       </c>
@@ -868,21 +1197,51 @@
       <c r="M9" s="1">
         <v>2</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
+      <c r="N9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC9" s="1">
         <v>2</v>
       </c>
@@ -903,25 +1262,63 @@
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="C10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>-1</v>
+      </c>
       <c r="V10" s="1">
         <v>2</v>
       </c>
@@ -931,10 +1328,18 @@
       <c r="X10" s="1">
         <v>2</v>
       </c>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
+      <c r="Y10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC10" s="1">
         <v>2</v>
       </c>
@@ -955,32 +1360,84 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
+      <c r="C11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC11" s="1">
         <v>2</v>
       </c>
@@ -1001,32 +1458,84 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
+      <c r="C12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC12" s="1">
         <v>2</v>
       </c>
@@ -1047,17 +1556,39 @@
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="C13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-1</v>
+      </c>
       <c r="N13" s="1">
         <v>2</v>
       </c>
@@ -1070,17 +1601,39 @@
       <c r="Q13" s="1">
         <v>2</v>
       </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="R13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC13" s="1">
         <v>2</v>
       </c>
@@ -1101,17 +1654,39 @@
       <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="C14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-1</v>
+      </c>
       <c r="N14" s="1">
         <v>2</v>
       </c>
@@ -1124,17 +1699,39 @@
       <c r="Q14" s="1">
         <v>2</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="R14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC14" s="1">
         <v>2</v>
       </c>
@@ -1155,11 +1752,21 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-1</v>
+      </c>
       <c r="H15" s="1">
         <v>2</v>
       </c>
@@ -1243,11 +1850,21 @@
       <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1</v>
+      </c>
       <c r="H16" s="1">
         <v>2</v>
       </c>
